--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.5502299172029</v>
+        <v>297.5373100855385</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.9726574841551</v>
+        <v>407.1036740787396</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.9078985945537</v>
+        <v>368.2502707982591</v>
       </c>
       <c r="AD2" t="n">
-        <v>245550.2299172029</v>
+        <v>297537.3100855385</v>
       </c>
       <c r="AE2" t="n">
-        <v>335972.6574841551</v>
+        <v>407103.6740787396</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286230723339328e-06</v>
+        <v>3.864986471888426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.861882716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>303907.8985945537</v>
+        <v>368250.2707982591</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.3199686203637</v>
+        <v>184.4781698880851</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.779145065924</v>
+        <v>252.4111706432244</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.7581178877713</v>
+        <v>228.3214027784115</v>
       </c>
       <c r="AD3" t="n">
-        <v>153319.9686203637</v>
+        <v>184478.1698880852</v>
       </c>
       <c r="AE3" t="n">
-        <v>209779.1450659239</v>
+        <v>252411.1706432244</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.162710199168834e-06</v>
+        <v>5.346718513360122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.40817901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>189758.1178877713</v>
+        <v>228321.4027784115</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.6235348089798</v>
+        <v>177.7817360767013</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.6167888993836</v>
+        <v>243.248814476684</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.470204134315</v>
+        <v>220.0334890249552</v>
       </c>
       <c r="AD4" t="n">
-        <v>146623.5348089798</v>
+        <v>177781.7360767013</v>
       </c>
       <c r="AE4" t="n">
-        <v>200616.7888993836</v>
+        <v>243248.814476684</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.279773699176262e-06</v>
+        <v>5.544620168368835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.176697530864199</v>
       </c>
       <c r="AH4" t="n">
-        <v>181470.204134315</v>
+        <v>220033.4890249552</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.6745165690842</v>
+        <v>228.0367879445242</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.7845531850285</v>
+        <v>312.0099935386184</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.2773958285082</v>
+        <v>282.2321976641613</v>
       </c>
       <c r="AD2" t="n">
-        <v>187674.5165690842</v>
+        <v>228036.7879445242</v>
       </c>
       <c r="AE2" t="n">
-        <v>256784.5531850285</v>
+        <v>312009.9935386184</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.724246310545538e-06</v>
+        <v>4.71782526277176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.692901234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>232277.3958285082</v>
+        <v>282232.1976641613</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.8791611957969</v>
+        <v>169.0656133813563</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.0205952641812</v>
+        <v>231.3230308767243</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.8852963478018</v>
+        <v>209.2458854738294</v>
       </c>
       <c r="AD3" t="n">
-        <v>138879.1611957969</v>
+        <v>169065.6133813564</v>
       </c>
       <c r="AE3" t="n">
-        <v>190020.5952641812</v>
+        <v>231323.0308767243</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.358543733428476e-06</v>
+        <v>5.816295835790134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.242283950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>171885.2963478018</v>
+        <v>209245.8854738294</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1746096807551</v>
+        <v>160.5507312770444</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.9011791622824</v>
+        <v>219.6725935315242</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.686049080884</v>
+        <v>198.70734951736</v>
       </c>
       <c r="AD2" t="n">
-        <v>124174.6096807551</v>
+        <v>160550.7312770444</v>
       </c>
       <c r="AE2" t="n">
-        <v>169901.1791622824</v>
+        <v>219672.5935315242</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.377476275859391e-06</v>
+        <v>6.390911912098541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.925154320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>153686.049080884</v>
+        <v>198707.34951736</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.7353951405635</v>
+        <v>157.3106283320521</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.1414470360431</v>
+        <v>215.2393417389344</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.3307545470459</v>
+        <v>194.6972010537456</v>
       </c>
       <c r="AD2" t="n">
-        <v>128735.3951405635</v>
+        <v>157310.6283320521</v>
       </c>
       <c r="AE2" t="n">
-        <v>176141.4470360431</v>
+        <v>215239.3417389344</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42054231675681e-06</v>
+        <v>6.231485245605533e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.543209876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>159330.7545470459</v>
+        <v>194697.2010537456</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7757256562172</v>
+        <v>157.3509588477059</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1966290268174</v>
+        <v>215.2945237297087</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.3806700460691</v>
+        <v>194.7471165527688</v>
       </c>
       <c r="AD3" t="n">
-        <v>128775.7256562173</v>
+        <v>157350.9588477059</v>
       </c>
       <c r="AE3" t="n">
-        <v>176196.6290268174</v>
+        <v>215294.5237297087</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.430749774584291e-06</v>
+        <v>6.250081016964795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.520061728395061</v>
       </c>
       <c r="AH3" t="n">
-        <v>159380.6700460691</v>
+        <v>194747.1165527688</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.9824645995885</v>
+        <v>167.0224722672651</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.5842307204733</v>
+        <v>228.5275150674017</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.3495251921216</v>
+        <v>206.7171697698165</v>
       </c>
       <c r="AD2" t="n">
-        <v>131982.4645995885</v>
+        <v>167022.4722672651</v>
       </c>
       <c r="AE2" t="n">
-        <v>180584.2307204733</v>
+        <v>228527.5150674017</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.241585840475715e-06</v>
+        <v>6.352463806858609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.492283950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>163349.5251921216</v>
+        <v>206717.1697698165</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.4633877981866</v>
+        <v>249.1712385391231</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.5463627720852</v>
+        <v>340.9270812282898</v>
       </c>
       <c r="AC2" t="n">
-        <v>245.6303590269107</v>
+        <v>308.3894790901272</v>
       </c>
       <c r="AD2" t="n">
-        <v>198463.3877981866</v>
+        <v>249171.2385391231</v>
       </c>
       <c r="AE2" t="n">
-        <v>271546.3627720852</v>
+        <v>340927.0812282898</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.609913129017673e-06</v>
+        <v>4.490306491132549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.959104938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>245630.3590269107</v>
+        <v>308389.4790901272</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.9957247645006</v>
+        <v>171.4375928885279</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.9165709150746</v>
+        <v>234.5684778827853</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.5048841471022</v>
+        <v>212.1815915726464</v>
       </c>
       <c r="AD3" t="n">
-        <v>140995.7247645006</v>
+        <v>171437.5928885279</v>
       </c>
       <c r="AE3" t="n">
-        <v>192916.5709150746</v>
+        <v>234568.4778827853</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.338550220551199e-06</v>
+        <v>5.743912914049922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.222993827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>174504.8841471022</v>
+        <v>212181.5915726464</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.2431716505569</v>
+        <v>171.6850397745841</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.2551386611628</v>
+        <v>234.9070456288734</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.8111394626866</v>
+        <v>212.4878468882308</v>
       </c>
       <c r="AD4" t="n">
-        <v>141243.1716505569</v>
+        <v>171685.0397745841</v>
       </c>
       <c r="AE4" t="n">
-        <v>193255.1386611628</v>
+        <v>234907.0456288734</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.338657903561845e-06</v>
+        <v>5.744098180646082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.222993827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>174811.1394626866</v>
+        <v>212487.8468882308</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.8363902579307</v>
+        <v>175.2210408435948</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.6985624138435</v>
+        <v>239.7451582888488</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.3076820712516</v>
+        <v>216.8642168662734</v>
       </c>
       <c r="AD2" t="n">
-        <v>140836.3902579307</v>
+        <v>175221.0408435948</v>
       </c>
       <c r="AE2" t="n">
-        <v>192698.5624138435</v>
+        <v>239745.1582888488</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105130546391629e-06</v>
+        <v>6.224732170540644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.005401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>174307.6820712516</v>
+        <v>216864.2168662734</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.8381377507031</v>
+        <v>187.0098038733907</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.2786622287484</v>
+        <v>255.8750639497266</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.9734706055797</v>
+        <v>231.4547069693471</v>
       </c>
       <c r="AD2" t="n">
-        <v>147838.1377507031</v>
+        <v>187009.8038733907</v>
       </c>
       <c r="AE2" t="n">
-        <v>202278.6622287484</v>
+        <v>255875.0639497266</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.121908265282208e-06</v>
+        <v>5.529131517139667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.917438271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>182973.4706055797</v>
+        <v>231454.7069693471</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.5419281561667</v>
+        <v>162.8994320430906</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.7179575572592</v>
+        <v>222.8861895369919</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.2796121343097</v>
+        <v>201.6142444303771</v>
       </c>
       <c r="AD3" t="n">
-        <v>133541.9281561667</v>
+        <v>162899.4320430906</v>
       </c>
       <c r="AE3" t="n">
-        <v>182717.9575572592</v>
+        <v>222886.1895369919</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.408954553462068e-06</v>
+        <v>6.037511823025993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.334876543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>165279.6121343097</v>
+        <v>201614.2444303771</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>176.7899515566134</v>
+        <v>216.6281261313232</v>
       </c>
       <c r="AB2" t="n">
-        <v>241.8918111418554</v>
+        <v>296.4001591311676</v>
       </c>
       <c r="AC2" t="n">
-        <v>218.805996183836</v>
+        <v>268.1121439440125</v>
       </c>
       <c r="AD2" t="n">
-        <v>176789.9515566134</v>
+        <v>216628.1261313232</v>
       </c>
       <c r="AE2" t="n">
-        <v>241891.8111418554</v>
+        <v>296400.1591311676</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.856522750945969e-06</v>
+        <v>4.981526248355927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>218805.996183836</v>
+        <v>268112.1439440125</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.1921866348974</v>
+        <v>167.1135103703533</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.7124022458945</v>
+        <v>228.6520774163646</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.7973940316104</v>
+        <v>206.8298440630188</v>
       </c>
       <c r="AD3" t="n">
-        <v>137192.1866348973</v>
+        <v>167113.5103703533</v>
       </c>
       <c r="AE3" t="n">
-        <v>187712.4022458945</v>
+        <v>228652.0774163646</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.378488210323363e-06</v>
+        <v>5.891788431901485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>169797.3940316104</v>
+        <v>206829.8440630188</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.3058048769454</v>
+        <v>273.7408470269173</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.8510508412892</v>
+        <v>374.544303496077</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.5157926558425</v>
+        <v>338.7983208466421</v>
       </c>
       <c r="AD2" t="n">
-        <v>232305.8048769454</v>
+        <v>273740.8470269173</v>
       </c>
       <c r="AE2" t="n">
-        <v>317851.0508412892</v>
+        <v>374544.303496077</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.391113874475065e-06</v>
+        <v>4.064735112238799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>287515.7926558425</v>
+        <v>338798.3208466421</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.0584645688514</v>
+        <v>178.9854891943785</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.580123101472</v>
+        <v>244.8958425981286</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.2461604757136</v>
+        <v>221.5233270941081</v>
       </c>
       <c r="AD3" t="n">
-        <v>148058.4645688514</v>
+        <v>178985.4891943785</v>
       </c>
       <c r="AE3" t="n">
-        <v>202580.123101472</v>
+        <v>244895.8425981286</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.237913766790491e-06</v>
+        <v>5.504238806344621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.307870370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>183246.1604757136</v>
+        <v>221523.3270941081</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.7658485872304</v>
+        <v>175.6928732127575</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.0750206554552</v>
+        <v>240.3907401521118</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.1710186841923</v>
+        <v>217.4481853025868</v>
       </c>
       <c r="AD4" t="n">
-        <v>144765.8485872304</v>
+        <v>175692.8732127575</v>
       </c>
       <c r="AE4" t="n">
-        <v>198075.0206554552</v>
+        <v>240390.7401521119</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300698504992923e-06</v>
+        <v>5.610968700143666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH4" t="n">
-        <v>179171.0186841923</v>
+        <v>217448.1853025868</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.7013502719383</v>
+        <v>161.6111302099715</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.5678418123794</v>
+        <v>221.1234781330536</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.2392618219233</v>
+        <v>200.0197637288492</v>
       </c>
       <c r="AD2" t="n">
-        <v>132701.3502719383</v>
+        <v>161611.1302099715</v>
       </c>
       <c r="AE2" t="n">
-        <v>181567.8418123794</v>
+        <v>221123.4781330536</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366164098897214e-06</v>
+        <v>6.069990439190376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.562500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>164239.2618219233</v>
+        <v>200019.7637288492</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4978484429863</v>
+        <v>159.2370361804273</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.5529133983689</v>
+        <v>217.8751379441962</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.5120739442664</v>
+        <v>197.0814405685413</v>
       </c>
       <c r="AD3" t="n">
-        <v>130497.8484429863</v>
+        <v>159237.0361804273</v>
       </c>
       <c r="AE3" t="n">
-        <v>178552.9133983689</v>
+        <v>217875.1379441962</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.426298716833821e-06</v>
+        <v>6.178427385582608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.450617283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>161512.0739442664</v>
+        <v>197081.4405685413</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.308780880069</v>
+        <v>162.2303220234019</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.4530022332849</v>
+        <v>221.9706836890035</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.0897683359879</v>
+        <v>200.7861131755999</v>
       </c>
       <c r="AD2" t="n">
-        <v>125308.780880069</v>
+        <v>162230.3220234019</v>
       </c>
       <c r="AE2" t="n">
-        <v>171453.0022332849</v>
+        <v>221970.6836890035</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.411512123913628e-06</v>
+        <v>6.364791158147198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.747685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>155089.7683359879</v>
+        <v>200786.1131755999</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.3564231684656</v>
+        <v>159.2569806164944</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.0958973322985</v>
+        <v>217.9024268015096</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8123590606429</v>
+        <v>197.1061250156128</v>
       </c>
       <c r="AD2" t="n">
-        <v>132356.4231684656</v>
+        <v>159256.9806164944</v>
       </c>
       <c r="AE2" t="n">
-        <v>181095.8973322985</v>
+        <v>217902.4268015096</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.32996640552527e-06</v>
+        <v>6.403648884993119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.148919753086421</v>
       </c>
       <c r="AH2" t="n">
-        <v>163812.3590606429</v>
+        <v>197106.1250156128</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1513468305389</v>
+        <v>185.0763397264799</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.8659881251605</v>
+        <v>253.2296130055065</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.1728131181915</v>
+        <v>229.0617341503287</v>
       </c>
       <c r="AD2" t="n">
-        <v>143151.3468305389</v>
+        <v>185076.3397264799</v>
       </c>
       <c r="AE2" t="n">
-        <v>195865.9881251605</v>
+        <v>253229.6130055065</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859375038222663e-06</v>
+        <v>5.89774501335963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.935185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>177172.8131181915</v>
+        <v>229061.7341503287</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.567801316674</v>
+        <v>197.2985687357868</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.2736583310222</v>
+        <v>269.9526059427204</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.392102167576</v>
+        <v>244.1887081124882</v>
       </c>
       <c r="AD2" t="n">
-        <v>167567.801316674</v>
+        <v>197298.5687357868</v>
       </c>
       <c r="AE2" t="n">
-        <v>229273.6583310222</v>
+        <v>269952.6059427204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.976659259573654e-06</v>
+        <v>5.229872896484022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.179783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>207392.102167576</v>
+        <v>244188.7081124882</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.3643864452111</v>
+        <v>165.0098130097523</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.2115253895137</v>
+        <v>225.7737058790142</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.5351973523991</v>
+        <v>204.2261802653724</v>
       </c>
       <c r="AD3" t="n">
-        <v>135364.3864452111</v>
+        <v>165009.8130097523</v>
       </c>
       <c r="AE3" t="n">
-        <v>185211.5253895137</v>
+        <v>225773.7058790142</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.390113391986289e-06</v>
+        <v>5.956295497287132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.304012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>167535.1973523991</v>
+        <v>204226.1802653724</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.5644577920679</v>
+        <v>261.5108335357123</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.7860217680924</v>
+        <v>357.8106594872945</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.9839874099766</v>
+        <v>323.661712336241</v>
       </c>
       <c r="AD2" t="n">
-        <v>220564.4577920679</v>
+        <v>261510.8335357122</v>
       </c>
       <c r="AE2" t="n">
-        <v>301786.0217680924</v>
+        <v>357810.6594872945</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493739484449715e-06</v>
+        <v>4.264016610107058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.256172839506172</v>
       </c>
       <c r="AH2" t="n">
-        <v>272983.9874099766</v>
+        <v>323661.712336241</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.0387302304902</v>
+        <v>174.7271992017158</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.0801452415658</v>
+        <v>239.0694623676747</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.2710927834877</v>
+        <v>216.2530084154708</v>
       </c>
       <c r="AD3" t="n">
-        <v>144038.7302304902</v>
+        <v>174727.1992017158</v>
       </c>
       <c r="AE3" t="n">
-        <v>197080.1452415658</v>
+        <v>239069.4623676747</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.303812484492715e-06</v>
+        <v>5.649151163704915e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.234567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>178271.0927834877</v>
+        <v>216253.0084154708</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.6768725586075</v>
+        <v>173.3653415298332</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.2167914939767</v>
+        <v>237.2061086200856</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.5855749023345</v>
+        <v>214.5674905343176</v>
       </c>
       <c r="AD4" t="n">
-        <v>142676.8725586075</v>
+        <v>173365.3415298332</v>
       </c>
       <c r="AE4" t="n">
-        <v>195216.7914939767</v>
+        <v>237206.1086200856</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.332476770274416e-06</v>
+        <v>5.698163897974951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>176585.5749023345</v>
+        <v>214567.4905343176</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.0240982487632</v>
+        <v>215.7663281946744</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.5297398070206</v>
+        <v>295.2210091744036</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.7191821834087</v>
+        <v>267.0455304041744</v>
       </c>
       <c r="AD2" t="n">
-        <v>167024.0982487632</v>
+        <v>215766.3281946744</v>
       </c>
       <c r="AE2" t="n">
-        <v>228529.7398070206</v>
+        <v>295221.0091744036</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.4140345229497e-06</v>
+        <v>5.174387863956014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>206719.1821834087</v>
+        <v>267045.5304041744</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.8427986015451</v>
+        <v>164.2704336472905</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.5519129558929</v>
+        <v>224.7620544161792</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9883619650705</v>
+        <v>203.3110793982883</v>
       </c>
       <c r="AD2" t="n">
-        <v>126842.7986015451</v>
+        <v>164270.4336472905</v>
       </c>
       <c r="AE2" t="n">
-        <v>173551.9129558929</v>
+        <v>224762.0544161792</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425571403697559e-06</v>
+        <v>6.311384205494353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>156988.3619650705</v>
+        <v>203311.0793982883</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.9831499127596</v>
+        <v>177.7528660217969</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.1628772143877</v>
+        <v>243.2093131939069</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.0139991083747</v>
+        <v>219.9977576891658</v>
       </c>
       <c r="AD2" t="n">
-        <v>138983.1499127595</v>
+        <v>177752.8660217969</v>
       </c>
       <c r="AE2" t="n">
-        <v>190162.8772143878</v>
+        <v>243209.3131939069</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.26464031842303e-06</v>
+        <v>5.832041681025609e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>172013.9991083747</v>
+        <v>219997.7576891658</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.9196189938221</v>
+        <v>160.9756603705083</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4982425901114</v>
+        <v>220.2540002637497</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.2717436482363</v>
+        <v>199.2332676070715</v>
       </c>
       <c r="AD3" t="n">
-        <v>131919.6189938221</v>
+        <v>160975.6603705083</v>
       </c>
       <c r="AE3" t="n">
-        <v>180498.2425901114</v>
+        <v>220254.0002637497</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425667758321667e-06</v>
+        <v>6.119705450898837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>163271.7436482363</v>
+        <v>199233.2676070715</v>
       </c>
     </row>
   </sheetData>
